--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +39,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Вы оплатили по старому тарифу. С 01.01.2019 новый тариф Т1-4,57 и Т2-2,39; к доплате 2,88 руб.</t>
-  </si>
-  <si>
-    <t>доплачено</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -56,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,27 +87,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,19 +126,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -162,48 +134,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,7 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,38 +161,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,79 +490,95 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43232</v>
+        <v>43372</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2252</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>2572</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>876</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>986</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43281</v>
+        <v>43565</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>2402</v>
+        <v>2612</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>150</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>4.5</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>675</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>180</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>184.7</v>
+      </c>
+      <c r="H4" s="13">
+        <v>184.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -660,275 +587,129 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>926</v>
+        <v>988</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>2.35</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43372</v>
+        <v>43695</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>2572</v>
+        <v>2932</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>170</v>
+        <f>C6-C4</f>
+        <v>320</v>
       </c>
       <c r="E6" s="3">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>1436.8000000000002</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>1728.4</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1731.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>986</v>
+        <v>1108</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>C7-C5</f>
+        <v>120</v>
       </c>
       <c r="E7" s="3">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43565</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2612</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>988</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43565</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+        <f>D7*E7</f>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(G2:G7)</f>
+        <v>1913.1000000000001</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUM(H2:H7)</f>
+        <v>1915.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <f>SUM(H8,-G8)</f>
+        <v>2.8799999999998818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43695</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2932</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C8</f>
-        <v>320</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>1436.8000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1108</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>120</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>291.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43695</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="6">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B10:E10"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,57 +657,108 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
+      <c r="A8" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3432</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>2245</v>
       </c>
       <c r="G8" s="13">
-        <f>SUM(G2:G7)</f>
-        <v>1913.1000000000001</v>
+        <f>SUM(F8,F9)</f>
+        <v>2731</v>
       </c>
       <c r="H8" s="13">
-        <f>SUM(H2:H7)</f>
-        <v>1915.98</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1308</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C7</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>486.00000000000006</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="13">
-        <f>SUM(H8,-G8)</f>
-        <v>2.8799999999998818</v>
-      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(G2:G9)</f>
+        <v>4644.1000000000004</v>
+      </c>
+      <c r="H10" s="13">
+        <f>SUM(H2:H9)</f>
+        <v>4646.9799999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <f>SUM(H10,-G10)</f>
+        <v>2.8799999999991996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,57 +708,108 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
+      <c r="A10" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3602</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>170</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>763.30000000000007</v>
       </c>
       <c r="G10" s="13">
-        <f>SUM(G2:G9)</f>
-        <v>4644.1000000000004</v>
+        <f>SUM(F10,F11)</f>
+        <v>933.40000000000009</v>
       </c>
       <c r="H10" s="13">
-        <f>SUM(H2:H9)</f>
-        <v>4646.9799999999996</v>
+        <v>933.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1378</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>70</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>170.10000000000002</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <f>SUM(H10,-G10)</f>
-        <v>2.8799999999991996</v>
-      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(G2:G9)</f>
+        <v>4644.1000000000004</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(H2:H9)</f>
+        <v>4646.9799999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <f>SUM(H12,-G12)</f>
+        <v>2.8799999999991996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,14 +616,14 @@
         <v>2932</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
+        <f t="shared" ref="D6:D13" si="2">C6-C4</f>
         <v>320</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>1436.8000000000002</v>
       </c>
       <c r="G6" s="13">
@@ -643,14 +643,14 @@
         <v>1108</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="3"/>
         <v>291.60000000000002</v>
       </c>
       <c r="G7" s="13"/>
@@ -667,14 +667,14 @@
         <v>3432</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="3"/>
         <v>2245</v>
       </c>
       <c r="G8" s="13">
@@ -694,14 +694,14 @@
         <v>1308</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="3"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G9" s="13"/>
@@ -718,14 +718,14 @@
         <v>3602</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="3"/>
         <v>763.30000000000007</v>
       </c>
       <c r="G10" s="13">
@@ -745,71 +745,122 @@
         <v>1378</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>170.10000000000002</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
+      <c r="A12" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3722</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>565.20000000000005</v>
       </c>
       <c r="G12" s="13">
-        <f>SUM(G2:G9)</f>
-        <v>4644.1000000000004</v>
+        <f>SUM(F12,F13)</f>
+        <v>794.7</v>
       </c>
       <c r="H12" s="13">
-        <f>SUM(H2:H9)</f>
-        <v>4646.9799999999996</v>
+        <v>794.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1468</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>229.49999999999997</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <f>SUM(H12,-G12)</f>
-        <v>2.8799999999991996</v>
-      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>6372.2</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>6375.079999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <f>SUM(H14,-G14)</f>
+        <v>2.8799999999991996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,57 +810,108 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
+      <c r="A14" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3932</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">C14-C12</f>
+        <v>210</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>989.1</v>
       </c>
       <c r="G14" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>6372.2</v>
+        <f>SUM(F14,F15)</f>
+        <v>1091.0999999999999</v>
       </c>
       <c r="H14" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>6375.079999999999</v>
+        <v>1091.0999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1508</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>102</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="13">
-        <f>SUM(H14,-G14)</f>
-        <v>2.8799999999991996</v>
-      </c>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>6372.2</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>6375.079999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <f>SUM(H16,-G16)</f>
+        <v>2.8799999999991996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -138,10 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,7 +472,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -497,421 +490,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43372</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2572</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>986</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43565</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2612</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="0">C4-C2</f>
         <v>40</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4.5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>180</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
         <v>184.7</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>184.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>988</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.35</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43695</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2932</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:D13" si="2">C6-C4</f>
         <v>320</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>1436.8000000000002</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
         <v>1728.4</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>1731.28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1108</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="3"/>
         <v>291.60000000000002</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43972</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3432</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>2245</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
         <v>2731</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>2731</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1308</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>486.00000000000006</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44014</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3602</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>4.49</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>763.30000000000007</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f>SUM(F10,F11)</f>
         <v>933.40000000000009</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>933.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1378</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
         <v>170.10000000000002</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44041</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3722</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>4.71</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" ref="F12:F13" si="4">D12*E12</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f>SUM(F12,F13)</f>
         <v>794.7</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>794.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1468</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="4"/>
         <v>229.49999999999997</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44104</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>3932</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" ref="D14:D15" si="5">C14-C12</f>
         <v>210</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>4.71</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" ref="F14:F15" si="6">D14*E14</f>
         <v>989.1</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>SUM(F14,F15)</f>
         <v>1091.0999999999999</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>1091.0999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1508</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>6372.2</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>6375.079999999999</v>
+      <c r="A16" s="3">
+        <v>44126</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4082</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="7">C16-C14</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>706.5</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>834</v>
+      </c>
+      <c r="H16" s="12">
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
-        <v>2.8799999999991996</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1558</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,26 +113,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,17 +134,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -472,7 +446,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,8 +502,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -542,8 +516,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -566,11 +540,11 @@
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>180</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
         <v>184.7</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="7">
         <v>184.7</v>
       </c>
     </row>
@@ -593,8 +567,8 @@
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -619,11 +593,11 @@
         <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>1436.8000000000002</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
         <v>1728.4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <v>1731.28</v>
       </c>
     </row>
@@ -646,8 +620,8 @@
         <f t="shared" si="3"/>
         <v>291.60000000000002</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -670,11 +644,11 @@
         <f t="shared" si="3"/>
         <v>2245</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
         <v>2731</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="7">
         <v>2731</v>
       </c>
     </row>
@@ -697,8 +671,8 @@
         <f t="shared" si="3"/>
         <v>486.00000000000006</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -721,11 +695,11 @@
         <f t="shared" si="3"/>
         <v>763.30000000000007</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
         <v>933.40000000000009</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>933.4</v>
       </c>
     </row>
@@ -748,8 +722,8 @@
         <f t="shared" si="3"/>
         <v>170.10000000000002</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -772,11 +746,11 @@
         <f t="shared" ref="F12:F13" si="4">D12*E12</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
         <v>794.7</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>794.7</v>
       </c>
     </row>
@@ -799,8 +773,8 @@
         <f t="shared" si="4"/>
         <v>229.49999999999997</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -823,11 +797,11 @@
         <f t="shared" ref="F14:F15" si="6">D14*E14</f>
         <v>989.1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
         <v>1091.0999999999999</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <v>1091.0999999999999</v>
       </c>
     </row>
@@ -850,8 +824,8 @@
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -874,11 +848,11 @@
         <f t="shared" ref="F16:F17" si="8">D16*E16</f>
         <v>706.5</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
         <v>834</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="7">
         <v>834</v>
       </c>
     </row>
@@ -901,28 +875,59 @@
         <f t="shared" si="8"/>
         <v>127.49999999999999</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A18" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4172</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="9">C18-C16</f>
+        <v>90</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>423.9</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>551.4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>551.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1608</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="10"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,6 +136,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -928,6 +929,74 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4344</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="11">C20-C18</f>
+        <v>172</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>810.12</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUM(F20,F21)</f>
+        <v>973.31999999999994</v>
+      </c>
+      <c r="H20" s="7">
+        <v>973.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1672</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="12"/>
+        <v>163.19999999999999</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="7">
+        <f>SUM(G2:G21)</f>
+        <v>9822.0199999999986</v>
+      </c>
+      <c r="H22" s="7">
+        <f>SUM(H2:H21)</f>
+        <v>9824.8999999999978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+      <c r="H23" s="7">
+        <f>SUM(G22,-H22)</f>
+        <v>-2.8799999999991996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:H23"/>
+      <selection activeCell="U14" sqref="U13:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -982,19 +982,70 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4504</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="13">C22-C20</f>
+        <v>160</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
+        <v>753.6</v>
+      </c>
       <c r="G22" s="7">
+        <f>SUM(F22,F23)</f>
+        <v>906.6</v>
+      </c>
+      <c r="H22" s="7">
+        <v>906.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1732</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="7">
         <f>SUM(G2:G21)</f>
         <v>9822.0199999999986</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H24" s="7">
         <f>SUM(H2:H21)</f>
         <v>9824.8999999999978</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="8"/>
-      <c r="H23" s="7">
-        <f>SUM(G22,-H22)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
+        <f>SUM(G24,-H24)</f>
         <v>-2.8799999999991996</v>
       </c>
     </row>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,7 +136,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U14" sqref="U13:U14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,21 +1032,106 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44413</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4674</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="15">C24-C22</f>
+        <v>170</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="16">D24*E24</f>
+        <v>843.2</v>
+      </c>
       <c r="G24" s="7">
-        <f>SUM(G2:G21)</f>
-        <v>9822.0199999999986</v>
+        <f>SUM(F24,F25)</f>
+        <v>1030.8000000000002</v>
       </c>
       <c r="H24" s="7">
-        <f>SUM(H2:H21)</f>
-        <v>9824.8999999999978</v>
+        <v>1030.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="8"/>
-      <c r="H25" s="7">
-        <f>SUM(G24,-H24)</f>
-        <v>-2.8799999999991996</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1802</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="16"/>
+        <v>187.60000000000002</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44442</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4834</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="17">C26-C24</f>
+        <v>160</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="18">D26*E26</f>
+        <v>793.6</v>
+      </c>
+      <c r="G26" s="7">
+        <f>SUM(F26,F27)</f>
+        <v>1008</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1882</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="18"/>
+        <v>214.4</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1132,6 +1132,57 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44475</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5024</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="19">C28-C26</f>
+        <v>190</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="20">D28*E28</f>
+        <v>942.4</v>
+      </c>
+      <c r="G28" s="7">
+        <f>SUM(F28,F29)</f>
+        <v>1210.4000000000001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1982</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="20"/>
+        <v>268</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/317ee.xlsx
+++ b/sputnik/personal/ee/317ee.xlsx
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,6 +136,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1184,16 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="8">
+        <f>SUM(G2:G29)</f>
+        <v>13977.819999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <f>SUM(H2:H29)</f>
+        <v>13980.699999999997</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
